--- a/Documents/DIYANA/ICPMS/COVER/POW 250924.xlsx
+++ b/Documents/DIYANA/ICPMS/COVER/POW 250924.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.98\Users\Gunasama\Documents\DIYANA\ICPMS\COVER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F0BF24-6011-4CD0-A9AC-06F3A6E90F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1625FD13-BA32-4204-A205-8460F0CC4992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormTitan" sheetId="4" r:id="rId1"/>
@@ -424,9 +424,6 @@
     <t>01/10/2024</t>
   </si>
   <si>
-    <t xml:space="preserve">    IQBAL   NORDIYANA   MAISARAH</t>
-  </si>
-  <si>
     <t>IQC PIL 250924</t>
   </si>
   <si>
@@ -462,6 +459,9 @@
   <si>
     <t xml:space="preserve">   IQBAL  NORDIYANA  MAISARAH</t>
   </si>
+  <si>
+    <t xml:space="preserve"> IQBAL   NORDIYANA   MAISARAH</t>
+  </si>
 </sst>
 </file>
 
@@ -472,11 +472,18 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="[$-14409]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -970,280 +977,280 @@
   </cellStyleXfs>
   <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1557,7 +1564,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D27"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,16 +1575,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="27" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1585,7 +1592,7 @@
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="27" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1593,21 +1600,21 @@
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="27" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1615,7 +1622,7 @@
       <c r="A8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="27" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1623,7 +1630,7 @@
       <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1631,21 +1638,21 @@
       <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="102" t="s">
+      <c r="B10" s="27" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="102" t="s">
+      <c r="B12" s="27" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1653,7 +1660,7 @@
       <c r="A13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="102" t="s">
+      <c r="B13" s="27" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1661,7 +1668,7 @@
       <c r="A14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="102" t="s">
+      <c r="B14" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1669,21 +1676,21 @@
       <c r="A15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="27" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="37"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="102" t="s">
+      <c r="B17" s="27" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1691,7 +1698,7 @@
       <c r="A18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="102" t="s">
+      <c r="B18" s="27" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1699,7 +1706,7 @@
       <c r="A19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1707,21 +1714,21 @@
       <c r="A20" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="102" t="s">
+      <c r="B20" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="39"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="102" t="s">
+      <c r="B22" s="27" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1729,7 +1736,7 @@
       <c r="A23" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="102" t="s">
+      <c r="B23" s="27" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1737,7 +1744,7 @@
       <c r="A24" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="102" t="s">
+      <c r="B24" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1745,31 +1752,31 @@
       <c r="A25" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="102" t="s">
+      <c r="B25" s="27" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="31"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="104" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="105"/>
-      <c r="D27" s="105"/>
+      <c r="B27" s="109" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="103" t="s">
+      <c r="B28" s="28" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1783,7 +1790,7 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A21:B21"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B3:B5">
     <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>LEN(B3)=0</formula>
@@ -1835,16 +1842,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="27" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1852,189 +1859,189 @@
       <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="102" t="s">
-        <v>62</v>
+      <c r="B4" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="102" t="s">
-        <v>63</v>
+      <c r="B5" s="27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="33"/>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="102" t="s">
-        <v>64</v>
+      <c r="B7" s="27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="102" t="s">
-        <v>71</v>
+      <c r="B8" s="27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="102" t="s">
-        <v>72</v>
+      <c r="B9" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="102" t="s">
-        <v>67</v>
+      <c r="B10" s="27" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="102" t="s">
-        <v>64</v>
+      <c r="B12" s="27" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="102" t="s">
-        <v>71</v>
+      <c r="B13" s="27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="102" t="s">
-        <v>72</v>
+      <c r="B14" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="102" t="s">
-        <v>68</v>
+      <c r="B15" s="27" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="37"/>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="102" t="s">
-        <v>65</v>
+      <c r="B17" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="102" t="s">
-        <v>71</v>
+      <c r="B18" s="27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="102" t="s">
-        <v>72</v>
+      <c r="B19" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="102" t="s">
-        <v>69</v>
+      <c r="B20" s="27" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="39"/>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="102" t="s">
-        <v>66</v>
+      <c r="B22" s="27" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="102" t="s">
-        <v>71</v>
+      <c r="B23" s="27" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="102" t="s">
-        <v>72</v>
+      <c r="B24" s="27" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="102" t="s">
-        <v>70</v>
+      <c r="B25" s="27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="28"/>
+      <c r="B26" s="31"/>
     </row>
     <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B27" s="102" t="s">
-        <v>73</v>
+      <c r="B27" s="27" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="27" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2085,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I996"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2103,93 +2110,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="86" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="66" t="s">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="66" t="str">
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="81" t="str">
         <f>FormTitan!B5</f>
         <v>RB POW 250924</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="60"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="37" t="str">
+      <c r="G6" s="88" t="str">
         <f>FormTitan!B7</f>
         <v>0.017</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
@@ -2208,118 +2215,118 @@
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F7" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="72" t="str">
+      <c r="B8" s="82" t="str">
         <f>FormTitan!B8</f>
         <v>0.502</v>
       </c>
-      <c r="C8" s="74" t="str">
+      <c r="C8" s="64" t="str">
         <f>FormTitan!B10</f>
         <v>56.969</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="40">
         <v>4304.0510000000004</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="58">
         <f>D8-C8</f>
         <v>4247.0820000000003</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="60">
         <f>((D8-C8)/1000)/(2.5/B8)</f>
         <v>0.85281406560000017</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="47">
+      <c r="H8" s="85"/>
+      <c r="I8" s="51">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>3.6064593591830695E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="78" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="79"/>
-      <c r="I9" s="48"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="52"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="74" t="str">
+      <c r="B10" s="64" t="str">
         <f>FormTitan!B9</f>
         <v>0.501</v>
       </c>
-      <c r="C10" s="74" t="str">
+      <c r="C10" s="64" t="str">
         <f>C8</f>
         <v>56.969</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="40">
         <v>4460.0330000000004</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="58">
         <f>D10-C10</f>
         <v>4403.0640000000003</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="60">
         <f>((D10-C10)/1000)/(2.5/B10)</f>
         <v>0.8823740256</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="55"/>
-      <c r="I10" s="48"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="52"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="50" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="49"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="53"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="37" t="str">
+      <c r="G12" s="88" t="str">
         <f>FormTitan!B12</f>
         <v>0.027</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="89"/>
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2338,118 +2345,118 @@
       <c r="E13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="71"/>
       <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="63" t="str">
+      <c r="B14" s="40" t="str">
         <f>FormTitan!B13</f>
         <v>0.502</v>
       </c>
-      <c r="C14" s="63" t="str">
+      <c r="C14" s="40" t="str">
         <f>FormTitan!B15</f>
         <v>20.287</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="40">
         <v>288.20999999999998</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="58">
         <f>D14-C14</f>
         <v>267.923</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="60">
         <f>((D14-C14)/1000)/(0.15/B14)</f>
         <v>0.89664897333333338</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="47">
+      <c r="H14" s="63"/>
+      <c r="I14" s="51">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>9.3727536318028142E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="50" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="48"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="52"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="63" t="str">
+      <c r="B16" s="40" t="str">
         <f>FormTitan!B14</f>
         <v>0.501</v>
       </c>
-      <c r="C16" s="63" t="str">
+      <c r="C16" s="40" t="str">
         <f>C14</f>
         <v>20.287</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="40">
         <v>290.733</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="58">
         <f>D16-C16</f>
         <v>270.44600000000003</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="60">
         <f>((D16-C16)/1000)/(0.15/B16)</f>
         <v>0.90328964000000012</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="55"/>
-      <c r="I16" s="48"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="52"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="50" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="49"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="37" t="str">
+      <c r="G18" s="88" t="str">
         <f>FormTitan!B17</f>
         <v>0.567</v>
       </c>
-      <c r="H18" s="38"/>
+      <c r="H18" s="89"/>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2468,118 +2475,118 @@
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="44" t="s">
+      <c r="F19" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="71"/>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="63" t="str">
+      <c r="B20" s="40" t="str">
         <f>FormTitan!B18</f>
         <v>0.502</v>
       </c>
-      <c r="C20" s="63" t="str">
+      <c r="C20" s="40" t="str">
         <f>FormTitan!B20</f>
         <v>19.594</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="40">
         <v>472.30500000000001</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="58">
         <f>D20-C20</f>
         <v>452.71100000000001</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="60">
         <f>((D20-C20)/1000)/(0.25/B20)</f>
         <v>0.90904368800000002</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="55"/>
-      <c r="I20" s="47">
+      <c r="H20" s="63"/>
+      <c r="I20" s="51">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>3.9340009463083629E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="50" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="48"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="52"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="63" t="str">
+      <c r="B22" s="40" t="str">
         <f>FormTitan!B19</f>
         <v>0.501</v>
       </c>
-      <c r="C22" s="63" t="str">
+      <c r="C22" s="40" t="str">
         <f>C20</f>
         <v>19.594</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="40">
         <v>490.47199999999998</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="58">
         <f>D22-C22</f>
         <v>470.87799999999999</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="60">
         <f>((D22-C22)/1000)/(0.25/B22)</f>
         <v>0.94363951199999996</v>
       </c>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="55"/>
-      <c r="I22" s="48"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="52"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="50" t="s">
+      <c r="A23" s="57"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="49"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="39" t="str">
+      <c r="G24" s="90" t="str">
         <f>FormTitan!B22</f>
         <v>0.623</v>
       </c>
-      <c r="H24" s="38"/>
+      <c r="H24" s="89"/>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
@@ -2598,101 +2605,101 @@
       <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="44" t="s">
+      <c r="F25" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="71"/>
       <c r="I25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="63" t="str">
+      <c r="B26" s="40" t="str">
         <f>FormTitan!B18</f>
         <v>0.502</v>
       </c>
-      <c r="C26" s="63" t="str">
+      <c r="C26" s="40" t="str">
         <f>FormTitan!B25</f>
         <v>246.355</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="40">
         <v>9880.5310000000009</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="58">
         <f>D26-C26</f>
         <v>9634.1760000000013</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="60">
         <f>((D26-C26)/1000)/(5/B26)</f>
         <v>0.96727127040000016</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="55"/>
-      <c r="I26" s="47">
+      <c r="H26" s="63"/>
+      <c r="I26" s="51">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>3.0942597476294482E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="50" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="51"/>
-      <c r="I27" s="48"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="52"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="63" t="str">
+      <c r="B28" s="40" t="str">
         <f>FormTitan!B19</f>
         <v>0.501</v>
       </c>
-      <c r="C28" s="63" t="str">
+      <c r="C28" s="40" t="str">
         <f>C26</f>
         <v>246.355</v>
       </c>
-      <c r="D28" s="63">
+      <c r="D28" s="40">
         <v>10183.322</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="58">
         <f>D28-C28</f>
         <v>9936.9670000000006</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="60">
         <f>((D28-C28)/1000)/(5/B28)</f>
         <v>0.99568409339999997</v>
       </c>
-      <c r="G28" s="54" t="s">
+      <c r="G28" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="48"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="52"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="62"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="50" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="51"/>
-      <c r="I29" s="49"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="53"/>
     </row>
     <row r="30" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
@@ -2706,58 +2713,58 @@
       <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="106" t="str">
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="91" t="str">
         <f>FormTitan!B27</f>
-        <v xml:space="preserve">    IQBAL   NORDIYANA   MAISARAH</v>
-      </c>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="40" t="str">
+        <v xml:space="preserve"> IQBAL   NORDIYANA   MAISARAH</v>
+      </c>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="95" t="str">
         <f>FormTitan!B28</f>
         <v>01/10/2024</v>
       </c>
-      <c r="I31" s="41"/>
+      <c r="I31" s="96"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="84"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="98"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="90" t="s">
+      <c r="A33" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="81"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="81"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="82"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="84"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
@@ -13346,39 +13353,50 @@
     <protectedRange sqref="D3" name="Range1"/>
   </protectedRanges>
   <mergeCells count="93">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="E33:I34"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E31:G32"/>
+    <mergeCell ref="H31:I32"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -13395,50 +13413,39 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E31:G32"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="E33:I34"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -13453,8 +13460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I995"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView view="pageLayout" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13472,95 +13479,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="82"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="85"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="66" t="str">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="81" t="str">
         <f>FormGH!B3</f>
         <v>011024</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="68"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
+      <c r="I3" s="79"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="66" t="str">
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="81" t="str">
         <f>FormGH!B4</f>
         <v>IQC PIL 250924</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="68"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="79"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="66" t="str">
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="81" t="str">
         <f>FormGH!B5</f>
         <v>RB GH A 250924</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="79"/>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="37" t="str">
+      <c r="G6" s="88" t="str">
         <f>FormGH!B7</f>
         <v>0.011</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="1" t="s">
         <v>7</v>
       </c>
@@ -13579,118 +13586,118 @@
       <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
       <c r="I7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="63" t="str">
+      <c r="B8" s="40" t="str">
         <f>FormGH!B8</f>
         <v>1.506</v>
       </c>
-      <c r="C8" s="63" t="str">
+      <c r="C8" s="40" t="str">
         <f>FormGH!B10</f>
         <v>75.783</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="40">
         <v>4395.116</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="105">
         <f>D8-C8</f>
         <v>4319.3329999999996</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="60">
         <f>((D8-C8)/1000)/(7.5/B8)</f>
         <v>0.86732206639999987</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="47">
+      <c r="H8" s="104"/>
+      <c r="I8" s="51">
         <f>ABS(E8-E10)/AVERAGE(E8,E10)</f>
         <v>4.0761026525395882E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="96"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="50" t="s">
+      <c r="A9" s="101"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="97"/>
-      <c r="I9" s="95"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="100"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="63" t="str">
+      <c r="B10" s="40" t="str">
         <f>FormGH!B9</f>
         <v>1.505</v>
       </c>
-      <c r="C10" s="63" t="str">
+      <c r="C10" s="40" t="str">
         <f>C8</f>
         <v>75.783</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="40">
         <v>4412.7579999999998</v>
       </c>
-      <c r="E10" s="100">
+      <c r="E10" s="105">
         <f>D10-C10</f>
         <v>4336.9749999999995</v>
       </c>
-      <c r="F10" s="52">
+      <c r="F10" s="60">
         <f>((D10-C10)/1000)/(7.5/B10)</f>
         <v>0.87028631666666656</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="99"/>
-      <c r="I10" s="95"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="100"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="96"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="50" t="s">
+      <c r="A11" s="101"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="97"/>
-      <c r="I11" s="96"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="101"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="58" t="s">
+      <c r="A12" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="76"/>
       <c r="F12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="37" t="str">
+      <c r="G12" s="88" t="str">
         <f>FormGH!B12</f>
         <v>0.011</v>
       </c>
-      <c r="H12" s="38"/>
+      <c r="H12" s="89"/>
       <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
@@ -13709,114 +13716,114 @@
       <c r="E13" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="94" t="s">
+      <c r="F13" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="81"/>
-      <c r="H13" s="82"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
       <c r="I13" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="40">
         <v>1.506</v>
       </c>
-      <c r="C14" s="63">
+      <c r="C14" s="40">
         <v>60.372999999999998</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="40">
         <v>327.75599999999997</v>
       </c>
-      <c r="E14" s="100">
+      <c r="E14" s="105">
         <f>D14-C14</f>
         <v>267.38299999999998</v>
       </c>
-      <c r="F14" s="52">
+      <c r="F14" s="60">
         <f>((D14-C14)/1000)/(0.45/B14)</f>
         <v>0.89484177333333326</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="99"/>
-      <c r="I14" s="47">
+      <c r="H14" s="104"/>
+      <c r="I14" s="51">
         <f>ABS(E14-E16)/AVERAGE(E14,E16)</f>
         <v>2.1330876489970209E-2</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="96"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="50" t="s">
+      <c r="A15" s="101"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="97"/>
-      <c r="I15" s="95"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="63">
+      <c r="B16" s="40">
         <v>1.5049999999999999</v>
       </c>
-      <c r="C16" s="63">
+      <c r="C16" s="40">
         <v>60.372999999999998</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="40">
         <v>333.52100000000002</v>
       </c>
-      <c r="E16" s="100">
+      <c r="E16" s="105">
         <f>D16-C16</f>
         <v>273.14800000000002</v>
       </c>
-      <c r="F16" s="52">
+      <c r="F16" s="60">
         <f>((D16-C16)/1000)/(0.45/B16)</f>
         <v>0.9135283111111111</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="95"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="100"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="50" t="s">
+      <c r="A17" s="101"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="97"/>
-      <c r="I17" s="96"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="101"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="76"/>
       <c r="F18" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="92" t="str">
+      <c r="G18" s="107" t="str">
         <f>FormGH!B17</f>
         <v>0.014</v>
       </c>
-      <c r="H18" s="93"/>
+      <c r="H18" s="108"/>
       <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
@@ -13835,114 +13842,114 @@
       <c r="E19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="81"/>
-      <c r="H19" s="82"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="63">
+      <c r="B20" s="40">
         <v>1.506</v>
       </c>
-      <c r="C20" s="63">
+      <c r="C20" s="40">
         <v>5.5579999999999998</v>
       </c>
-      <c r="D20" s="63">
+      <c r="D20" s="40">
         <v>444.60300000000001</v>
       </c>
-      <c r="E20" s="56">
+      <c r="E20" s="58">
         <f>D20-C20</f>
         <v>439.04500000000002</v>
       </c>
-      <c r="F20" s="52">
+      <c r="F20" s="60">
         <f>((D20-C20)/1000)/(0.75/B20)</f>
         <v>0.88160236000000003</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="99"/>
-      <c r="I20" s="47">
+      <c r="H20" s="104"/>
+      <c r="I20" s="51">
         <f>ABS(E20-E22)/AVERAGE(E20,E22)</f>
         <v>3.3258710841390038E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="96"/>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="50" t="s">
+      <c r="A21" s="101"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H21" s="97"/>
-      <c r="I21" s="95"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="100"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="63">
+      <c r="B22" s="40">
         <v>1.5049999999999999</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="40">
         <v>5.5579999999999998</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="40">
         <v>459.452</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="58">
         <f>D22-C22</f>
         <v>453.89400000000001</v>
       </c>
-      <c r="F22" s="52">
+      <c r="F22" s="60">
         <f>((D22-C22)/1000)/(0.75/B22)</f>
         <v>0.91081395999999992</v>
       </c>
-      <c r="G22" s="54" t="s">
+      <c r="G22" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="99"/>
-      <c r="I22" s="95"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="100"/>
     </row>
     <row r="23" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="96"/>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="50" t="s">
+      <c r="A23" s="101"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H23" s="97"/>
-      <c r="I23" s="96"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="101"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
       <c r="F24" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="37" t="str">
+      <c r="G24" s="88" t="str">
         <f>FormGH!B22</f>
         <v>0.498</v>
       </c>
-      <c r="H24" s="38"/>
+      <c r="H24" s="89"/>
       <c r="I24" s="1" t="s">
         <v>7</v>
       </c>
@@ -13961,151 +13968,151 @@
       <c r="E25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="94" t="s">
+      <c r="F25" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="81"/>
-      <c r="H25" s="82"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
       <c r="I25" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61" t="s">
+      <c r="A26" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="63">
+      <c r="B26" s="40">
         <v>1.506</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="40">
         <v>147.91200000000001</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="40">
         <v>9552.9050000000007</v>
       </c>
-      <c r="E26" s="56">
+      <c r="E26" s="58">
         <f>D26-C26</f>
         <v>9404.9930000000004</v>
       </c>
-      <c r="F26" s="52">
+      <c r="F26" s="60">
         <f>((D26-C26)/1000)/(15/B26)</f>
         <v>0.94426129720000007</v>
       </c>
-      <c r="G26" s="54" t="s">
+      <c r="G26" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H26" s="99"/>
-      <c r="I26" s="47">
+      <c r="H26" s="104"/>
+      <c r="I26" s="51">
         <f>ABS(E26-E28)/AVERAGE(E26,E28)</f>
         <v>1.3597416301872167E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="96"/>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="50" t="s">
+      <c r="A27" s="101"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="97"/>
-      <c r="I27" s="95"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="100"/>
     </row>
     <row r="28" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="63">
+      <c r="B28" s="40">
         <v>1.5049999999999999</v>
       </c>
-      <c r="C28" s="63">
+      <c r="C28" s="40">
         <v>147.91200000000001</v>
       </c>
-      <c r="D28" s="63">
+      <c r="D28" s="40">
         <v>9681.6640000000007</v>
       </c>
-      <c r="E28" s="56">
+      <c r="E28" s="58">
         <f>D28-C28</f>
         <v>9533.7520000000004</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="60">
         <f>((D28-C28)/1000)/(15/B28)</f>
         <v>0.95655311733333326</v>
       </c>
-      <c r="G28" s="54" t="s">
+      <c r="G28" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="99"/>
-      <c r="I28" s="95"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="100"/>
     </row>
     <row r="29" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="96"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="50" t="s">
+      <c r="A29" s="101"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="97"/>
-      <c r="I29" s="96"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="101"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="106" t="str">
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="91" t="str">
         <f>FormGH!B27</f>
         <v xml:space="preserve">   IQBAL  NORDIYANA  MAISARAH</v>
       </c>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="40" t="str">
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="95" t="str">
         <f>FormGH!B28</f>
         <v>01/10/2024</v>
       </c>
-      <c r="I30" s="41"/>
+      <c r="I30" s="96"/>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="84"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="43"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="98"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90" t="s">
+      <c r="A32" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="81"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="81"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="82"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="84"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="85"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="48"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
@@ -24691,39 +24698,50 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="A30:D31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:I33"/>
-    <mergeCell ref="I26:I29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="E30:G31"/>
+    <mergeCell ref="H30:I31"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I14:I17"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -24740,50 +24758,39 @@
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G11:H11"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="E30:G31"/>
-    <mergeCell ref="H30:I31"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I14:I17"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="A30:D31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:I33"/>
+    <mergeCell ref="I26:I29"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
